--- a/va_facility_data_2025-02-20/Flagstaff VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Flagstaff%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Flagstaff VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Flagstaff%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5f683fe4f17a47feaef873c2b0ff2904"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4b9c422d96a348b3b2cca8a957a12c8a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd94b5b58d0554041923357d092d1e615"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R47dfed0125844a04aef1e246d4bc3227"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R423b151ce04b48e08ac4f62af0b43265"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R149c9d704cda415cb3f1606217210ea1"/>
   </x:sheets>
 </x:workbook>
 </file>
